--- a/THINH6_TRUONGTUANTHINH.xlsx
+++ b/THINH6_TRUONGTUANTHINH.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\java-advanced-comnha\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{544DB5E0-E605-4633-B7C5-4289F07F23C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97EAED60-B964-4C0A-B728-8C9A51DF132F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,15 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>DANH SÁCH THÀNH VIÊN</t>
-  </si>
-  <si>
-    <t>1.File báo cáo</t>
-  </si>
-  <si>
-    <t>2. Code(1)</t>
   </si>
   <si>
     <t>3. Record(KQ nếu có)</t>
@@ -103,6 +97,12 @@
   </si>
   <si>
     <t>Hoàn thiện, chỉnh sửa báo cáo</t>
+  </si>
+  <si>
+    <t>1.File báo cáo: https://github.com/trungjason/java-advanced-comnha</t>
+  </si>
+  <si>
+    <t>2. Code(1): https://github.com/trungjason/java-advanced-comnha</t>
   </si>
 </sst>
 </file>
@@ -394,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:Z999"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -444,11 +444,11 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -478,11 +478,11 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -512,11 +512,11 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -546,7 +546,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -578,7 +578,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -607,16 +607,16 @@
     </row>
     <row r="7" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -644,13 +644,13 @@
     <row r="8" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C8" s="3">
         <v>4</v>
       </c>
       <c r="D8" s="4">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -678,12 +678,14 @@
     <row r="9" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C9" s="3">
         <v>5</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="4">
+        <v>1</v>
+      </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -710,12 +712,14 @@
     <row r="10" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C10" s="3">
         <v>3</v>
       </c>
-      <c r="D10" s="3"/>
+      <c r="D10" s="4">
+        <v>1</v>
+      </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -742,12 +746,14 @@
     <row r="11" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C11" s="3">
         <v>1</v>
       </c>
-      <c r="D11" s="3"/>
+      <c r="D11" s="4">
+        <v>1</v>
+      </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -773,11 +779,15 @@
     </row>
     <row r="12" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="C12" s="3">
         <v>2</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D12" s="4">
+        <v>1</v>
+      </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -802,10 +812,14 @@
       <c r="Z12" s="1"/>
     </row>
     <row r="13" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+      <c r="A13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -830,14 +844,12 @@
       <c r="Z13" s="1"/>
     </row>
     <row r="14" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>13</v>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>6</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -864,7 +876,7 @@
     <row r="15" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -894,7 +906,7 @@
     <row r="16" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -924,7 +936,7 @@
     <row r="17" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -954,7 +966,7 @@
     <row r="18" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -982,12 +994,18 @@
       <c r="Z18" s="1"/>
     </row>
     <row r="19" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3" t="s">
-        <v>12</v>
+      <c r="A19" s="2" t="s">
+        <v>17</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+      <c r="B19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -1012,17 +1030,15 @@
       <c r="Z19" s="1"/>
     </row>
     <row r="20" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="2" t="s">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>7</v>
+      <c r="C20" s="3">
+        <v>1</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0.6</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -1050,14 +1066,12 @@
     <row r="21" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C21" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
-      <c r="D21" s="4">
-        <v>0.6</v>
-      </c>
+      <c r="D21" s="3"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -1084,10 +1098,10 @@
     <row r="22" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C22" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="1"/>
@@ -1116,10 +1130,10 @@
     <row r="23" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C23" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="1"/>
@@ -1148,10 +1162,10 @@
     <row r="24" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C24" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="1"/>
@@ -1179,12 +1193,8 @@
     </row>
     <row r="25" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
-      <c r="B25" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="3">
-        <v>3</v>
-      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -1210,10 +1220,18 @@
       <c r="Z25" s="1"/>
     </row>
     <row r="26" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
+      <c r="A26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -1238,17 +1256,15 @@
       <c r="Z26" s="1"/>
     </row>
     <row r="27" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="2" t="s">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>7</v>
+      <c r="C27" s="3">
+        <v>1</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0.6</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -1276,14 +1292,12 @@
     <row r="28" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C28" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
-      <c r="D28" s="4">
-        <v>0.6</v>
-      </c>
+      <c r="D28" s="3"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
@@ -1310,10 +1324,10 @@
     <row r="29" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C29" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="1"/>
@@ -1342,10 +1356,10 @@
     <row r="30" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C30" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="1"/>
@@ -1374,10 +1388,10 @@
     <row r="31" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C31" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="1"/>
@@ -1405,12 +1419,8 @@
     </row>
     <row r="32" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
-      <c r="B32" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="3">
-        <v>3</v>
-      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -1436,10 +1446,18 @@
       <c r="Z32" s="1"/>
     </row>
     <row r="33" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
+      <c r="A33" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
@@ -1464,17 +1482,15 @@
       <c r="Z33" s="1"/>
     </row>
     <row r="34" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" s="2" t="s">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>7</v>
+      <c r="C34" s="3">
+        <v>1</v>
+      </c>
+      <c r="D34" s="4">
+        <v>0.6</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -1502,14 +1518,12 @@
     <row r="35" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C35" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
-      <c r="D35" s="4">
-        <v>0.6</v>
-      </c>
+      <c r="D35" s="3"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -1536,10 +1550,10 @@
     <row r="36" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C36" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="1"/>
@@ -1568,10 +1582,10 @@
     <row r="37" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C37" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="1"/>
@@ -1600,10 +1614,10 @@
     <row r="38" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C38" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="1"/>
@@ -1631,12 +1645,8 @@
     </row>
     <row r="39" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
-      <c r="B39" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C39" s="3">
-        <v>3</v>
-      </c>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -1662,10 +1672,10 @@
       <c r="Z39" s="1"/>
     </row>
     <row r="40" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -28541,34 +28551,6 @@
       <c r="Y999" s="1"/>
       <c r="Z999" s="1"/>
     </row>
-    <row r="1000" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1000" s="1"/>
-      <c r="B1000" s="1"/>
-      <c r="C1000" s="1"/>
-      <c r="D1000" s="1"/>
-      <c r="E1000" s="1"/>
-      <c r="F1000" s="1"/>
-      <c r="G1000" s="1"/>
-      <c r="H1000" s="1"/>
-      <c r="I1000" s="1"/>
-      <c r="J1000" s="1"/>
-      <c r="K1000" s="1"/>
-      <c r="L1000" s="1"/>
-      <c r="M1000" s="1"/>
-      <c r="N1000" s="1"/>
-      <c r="O1000" s="1"/>
-      <c r="P1000" s="1"/>
-      <c r="Q1000" s="1"/>
-      <c r="R1000" s="1"/>
-      <c r="S1000" s="1"/>
-      <c r="T1000" s="1"/>
-      <c r="U1000" s="1"/>
-      <c r="V1000" s="1"/>
-      <c r="W1000" s="1"/>
-      <c r="X1000" s="1"/>
-      <c r="Y1000" s="1"/>
-      <c r="Z1000" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
